--- a/src/eda/water_quality_stats.xlsx
+++ b/src/eda/water_quality_stats.xlsx
@@ -1,43 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Cond</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +101,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,10 +165,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +206,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +294,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +350,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +359,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +368,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +376,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +408,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +421,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,237 +444,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Variance</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Kurtosis</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Skewness</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mode</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Median</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Range</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>ph</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
         <v>7.234646306818183</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4">
         <v>0.0001374494031262123</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4">
         <v>1.541928763911613</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="4">
         <v>-0.0870510506143681</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4">
         <v>7.248</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="4">
         <v>7.234500000000001</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="4">
         <v>0.04199999999999982</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="4">
         <v>7.214</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="4">
         <v>7.256</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Temp</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
         <v>23.33128551136364</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4">
         <v>1.502618986646111</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4">
         <v>1.51286919789974</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4">
         <v>-0.2693743322312155</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4">
         <v>24.768</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4">
         <v>23.5425</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4">
         <v>3.366999999999997</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4">
         <v>21.402</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="4">
         <v>24.769</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Cond</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
         <v>206.8612798295455</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4">
         <v>31.63132887890979</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4">
         <v>1.526062884999134</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4">
         <v>-0.2769571333043928</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4">
         <v>213.421</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="4">
         <v>207.8355</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="4">
         <v>15.684</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="4">
         <v>197.751</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="4">
         <v>213.435</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
         <v>6.671653409090911</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4">
         <v>0.0004054358916332597</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4">
         <v>4.239554077804055</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="4">
         <v>-1.294917707673819</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="4">
         <v>6.674</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4">
         <v>6.675</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="4">
         <v>0.08800000000000008</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="4">
         <v>6.609</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="4">
         <v>6.697</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
         <v>0.8781505681818181</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.0005619260878701677</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" s="4">
+        <v>0.00056192608787</v>
+      </c>
+      <c r="D6" s="4">
         <v>3.042238278435344</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4">
         <v>0.02766566995758822</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4">
         <v>0.879</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4">
         <v>0.879</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="4">
         <v>0.1599999999999999</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="4">
         <v>0.802</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="4">
         <v>0.962</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>